--- a/tables/CNV_allcases_r.xlsx
+++ b/tables/CNV_allcases_r.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ali/Box/Alicia Palomino Mosquera's Files/CNVali/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C116B7-A925-5D43-A347-974BF8B3F14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3660C1-140B-2D4F-9FC3-00B85788A75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{D4C2D2BE-4790-C342-97A4-56680ABDB526}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="799">
   <si>
     <t>Diagnosis</t>
   </si>
@@ -99,9 +99,6 @@
     <t>2019-05-31</t>
   </si>
   <si>
-    <t>SLL</t>
-  </si>
-  <si>
     <t>07502040</t>
   </si>
   <si>
@@ -174,9 +171,6 @@
     <t>16708224</t>
   </si>
   <si>
-    <t>CLL/MZL/LPL</t>
-  </si>
-  <si>
     <t>2019-04-25</t>
   </si>
   <si>
@@ -252,9 +246,6 @@
     <t>75219410</t>
   </si>
   <si>
-    <t>MF, CD5+ small B cell lymphoproliferative</t>
-  </si>
-  <si>
     <t>2021-07-16</t>
   </si>
   <si>
@@ -1081,57 +1072,6 @@
   </si>
   <si>
     <t>MDS</t>
-  </si>
-  <si>
-    <t>MDS s/p allogeneic bone marrow transplant</t>
-  </si>
-  <si>
-    <t>MDS therapy related</t>
-  </si>
-  <si>
-    <t>MDS, Refractory cytopenia with unilineage dysplasia</t>
-  </si>
-  <si>
-    <t>MDS-EB-1</t>
-  </si>
-  <si>
-    <t>MDS, Refractory anemia with excess blasts</t>
-  </si>
-  <si>
-    <t>MDS, Refractory cytopenia with multilineage dysplasia</t>
-  </si>
-  <si>
-    <t>MDS with multilineage dysplasia</t>
-  </si>
-  <si>
-    <t>MDS/MPN, CMML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MDS/MPN </t>
-  </si>
-  <si>
-    <t>MDS isolated del(5q)</t>
-  </si>
-  <si>
-    <t>MDS, Refractory anemia with ring sideroblasts</t>
-  </si>
-  <si>
-    <t>MDS-EB</t>
-  </si>
-  <si>
-    <t>MDS with multilineage dysplasia and myelofibrosis</t>
-  </si>
-  <si>
-    <t>MDS,  Refractory anemia with ring sideroblasts</t>
-  </si>
-  <si>
-    <t>MDS-EB2</t>
-  </si>
-  <si>
-    <t>MDS/MPN</t>
-  </si>
-  <si>
-    <t>MDS + CML</t>
   </si>
   <si>
     <t>Karyotype_full</t>
@@ -3014,10 +2954,10 @@
   <dimension ref="A1:BJ201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3067,7 +3007,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>567</v>
+        <v>547</v>
       </c>
       <c r="G1" s="33" t="s">
         <v>4</v>
@@ -3076,166 +3016,166 @@
         <v>5</v>
       </c>
       <c r="I1" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="AC1" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="AF1" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="AG1" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="AH1" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="AI1" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="AK1" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="AL1" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="AM1" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="AN1" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="AO1" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="AP1" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="AQ1" s="31" t="s">
         <v>582</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="AR1" s="32" t="s">
         <v>583</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="AS1" s="32" t="s">
         <v>584</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AT1" s="32" t="s">
+        <v>598</v>
+      </c>
+      <c r="AU1" s="32" t="s">
         <v>585</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AV1" s="32" t="s">
         <v>586</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AW1" s="32" t="s">
         <v>587</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AX1" s="32" t="s">
         <v>588</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AY1" s="32" t="s">
         <v>589</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AZ1" s="32" t="s">
         <v>590</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="BA1" s="32" t="s">
         <v>591</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="BB1" s="32" t="s">
         <v>592</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="BC1" s="32" t="s">
         <v>593</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="BD1" s="32" t="s">
         <v>594</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="BE1" s="32" t="s">
         <v>595</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="BF1" s="32" t="s">
         <v>596</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="BG1" s="32" t="s">
         <v>597</v>
       </c>
-      <c r="AM1" s="6" t="s">
-        <v>598</v>
-      </c>
-      <c r="AN1" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="AO1" s="6" t="s">
-        <v>600</v>
-      </c>
-      <c r="AP1" s="6" t="s">
-        <v>601</v>
-      </c>
-      <c r="AQ1" s="31" t="s">
-        <v>602</v>
-      </c>
-      <c r="AR1" s="32" t="s">
-        <v>603</v>
-      </c>
-      <c r="AS1" s="32" t="s">
-        <v>604</v>
-      </c>
-      <c r="AT1" s="32" t="s">
-        <v>618</v>
-      </c>
-      <c r="AU1" s="32" t="s">
-        <v>605</v>
-      </c>
-      <c r="AV1" s="32" t="s">
-        <v>606</v>
-      </c>
-      <c r="AW1" s="32" t="s">
-        <v>607</v>
-      </c>
-      <c r="AX1" s="32" t="s">
-        <v>608</v>
-      </c>
-      <c r="AY1" s="32" t="s">
-        <v>609</v>
-      </c>
-      <c r="AZ1" s="32" t="s">
-        <v>610</v>
-      </c>
-      <c r="BA1" s="32" t="s">
-        <v>611</v>
-      </c>
-      <c r="BB1" s="32" t="s">
-        <v>612</v>
-      </c>
-      <c r="BC1" s="32" t="s">
-        <v>613</v>
-      </c>
-      <c r="BD1" s="32" t="s">
-        <v>614</v>
-      </c>
-      <c r="BE1" s="32" t="s">
-        <v>615</v>
-      </c>
-      <c r="BF1" s="32" t="s">
-        <v>616</v>
-      </c>
-      <c r="BG1" s="32" t="s">
-        <v>617</v>
-      </c>
       <c r="BH1" s="6" t="s">
-        <v>566</v>
+        <v>546</v>
       </c>
       <c r="BI1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="BJ1" s="25" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2" spans="1:62" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -3255,7 +3195,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>619</v>
+        <v>599</v>
       </c>
       <c r="G2" s="4">
         <v>1</v>
@@ -3417,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="BJ2" s="24" t="s">
-        <v>435</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.2">
@@ -3437,7 +3377,7 @@
         <v>43566</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="G3" s="4">
         <v>0</v>
@@ -3616,7 +3556,7 @@
         <v>16</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>621</v>
+        <v>601</v>
       </c>
       <c r="G4" s="4">
         <v>0</v>
@@ -3780,13 +3720,13 @@
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>19</v>
@@ -3795,7 +3735,7 @@
         <v>20</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>622</v>
+        <v>602</v>
       </c>
       <c r="G5" s="4">
         <v>0</v>
@@ -3962,19 +3902,19 @@
         <v>8</v>
       </c>
       <c r="B6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>23</v>
-      </c>
       <c r="E6" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="G6" s="4">
         <v>0</v>
@@ -4141,19 +4081,19 @@
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2">
         <v>44300</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>624</v>
+        <v>604</v>
       </c>
       <c r="G7" s="4">
         <v>0</v>
@@ -4320,10 +4260,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D8" s="2">
         <v>44477</v>
@@ -4332,7 +4272,7 @@
         <v>44496</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="G8" s="4">
         <v>0</v>
@@ -4499,19 +4439,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="E9" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>626</v>
+        <v>606</v>
       </c>
       <c r="G9" s="4">
         <v>0</v>
@@ -4678,19 +4618,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>30</v>
-      </c>
       <c r="E10" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="G10" s="4">
         <v>1</v>
@@ -4852,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="BJ10" s="24" t="s">
-        <v>436</v>
+        <v>416</v>
       </c>
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.2">
@@ -4860,19 +4800,19 @@
         <v>8</v>
       </c>
       <c r="B11" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="E11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="F11" s="19" t="s">
-        <v>628</v>
+        <v>608</v>
       </c>
       <c r="G11" s="4">
         <v>0</v>
@@ -5039,19 +4979,19 @@
         <v>8</v>
       </c>
       <c r="B12" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="E12" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="G12" s="4">
         <v>1</v>
@@ -5213,7 +5153,7 @@
         <v>0</v>
       </c>
       <c r="BJ12" s="24" t="s">
-        <v>436</v>
+        <v>416</v>
       </c>
     </row>
     <row r="13" spans="1:62" x14ac:dyDescent="0.2">
@@ -5221,19 +5161,19 @@
         <v>8</v>
       </c>
       <c r="B13" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="F13" s="19" t="s">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="G13" s="4">
         <v>1</v>
@@ -5395,7 +5335,7 @@
         <v>0</v>
       </c>
       <c r="BJ13" s="24" t="s">
-        <v>436</v>
+        <v>416</v>
       </c>
     </row>
     <row r="14" spans="1:62" x14ac:dyDescent="0.2">
@@ -5403,10 +5343,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D14" s="2">
         <v>44110</v>
@@ -5415,7 +5355,7 @@
         <v>44110</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>631</v>
+        <v>611</v>
       </c>
       <c r="G14" s="4">
         <v>0</v>
@@ -5582,10 +5522,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D15" s="2">
         <v>44064</v>
@@ -5594,7 +5534,7 @@
         <v>44064</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>632</v>
+        <v>612</v>
       </c>
       <c r="G15" s="4">
         <v>0</v>
@@ -5761,19 +5701,19 @@
         <v>8</v>
       </c>
       <c r="B16" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" s="10" t="s">
+      <c r="E16" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>43</v>
-      </c>
       <c r="F16" s="19" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="G16" s="4">
         <v>0</v>
@@ -5940,10 +5880,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D17" s="2">
         <v>44336</v>
@@ -5952,7 +5892,7 @@
         <v>44336</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>634</v>
+        <v>614</v>
       </c>
       <c r="G17" s="4">
         <v>0</v>
@@ -6115,23 +6055,23 @@
       </c>
     </row>
     <row r="18" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="F18" s="19" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
       <c r="G18" s="4">
         <v>0</v>
@@ -6298,19 +6238,19 @@
         <v>8</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>636</v>
+        <v>616</v>
       </c>
       <c r="G19" s="4">
         <v>0</v>
@@ -6477,19 +6417,19 @@
         <v>8</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>637</v>
+        <v>617</v>
       </c>
       <c r="G20" s="4">
         <v>0</v>
@@ -6653,13 +6593,13 @@
     </row>
     <row r="21" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D21" s="2">
         <v>44208</v>
@@ -6668,7 +6608,7 @@
         <v>44208</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>638</v>
+        <v>618</v>
       </c>
       <c r="G21" s="4">
         <v>1</v>
@@ -6830,7 +6770,7 @@
         <v>0</v>
       </c>
       <c r="BJ21" s="24" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
     </row>
     <row r="22" spans="1:62" x14ac:dyDescent="0.2">
@@ -6838,19 +6778,19 @@
         <v>8</v>
       </c>
       <c r="B22" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="F22" s="19" t="s">
-        <v>639</v>
+        <v>619</v>
       </c>
       <c r="G22" s="4">
         <v>0</v>
@@ -7017,19 +6957,19 @@
         <v>8</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>640</v>
+        <v>620</v>
       </c>
       <c r="G23" s="4">
         <v>0</v>
@@ -7196,19 +7136,19 @@
         <v>8</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>641</v>
+        <v>621</v>
       </c>
       <c r="G24" s="4">
         <v>0</v>
@@ -7375,10 +7315,10 @@
         <v>8</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D25" s="2">
         <v>44261</v>
@@ -7387,7 +7327,7 @@
         <v>44261</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>642</v>
+        <v>622</v>
       </c>
       <c r="G25" s="4">
         <v>0</v>
@@ -7557,7 +7497,7 @@
         <v>30438808</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D26" s="2">
         <v>44400</v>
@@ -7566,7 +7506,7 @@
         <v>44454</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>643</v>
+        <v>623</v>
       </c>
       <c r="G26" s="4">
         <v>0</v>
@@ -7733,10 +7673,10 @@
         <v>8</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D27" s="2">
         <v>44119</v>
@@ -7745,7 +7685,7 @@
         <v>44119</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>644</v>
+        <v>624</v>
       </c>
       <c r="G27" s="4">
         <v>0</v>
@@ -7912,10 +7852,10 @@
         <v>8</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D28" s="2">
         <v>44102</v>
@@ -7924,7 +7864,7 @@
         <v>44109</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>645</v>
+        <v>625</v>
       </c>
       <c r="G28" s="4">
         <v>0</v>
@@ -8091,10 +8031,10 @@
         <v>8</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D29" s="2">
         <v>43399</v>
@@ -8103,7 +8043,7 @@
         <v>43384</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>646</v>
+        <v>626</v>
       </c>
       <c r="G29" s="4">
         <v>0</v>
@@ -8273,7 +8213,7 @@
         <v>33747908</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D30" s="2">
         <v>44160</v>
@@ -8282,7 +8222,7 @@
         <v>44160</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>647</v>
+        <v>627</v>
       </c>
       <c r="G30" s="4">
         <v>1</v>
@@ -8444,7 +8384,7 @@
         <v>0</v>
       </c>
       <c r="BJ30" s="24" t="s">
-        <v>436</v>
+        <v>416</v>
       </c>
     </row>
     <row r="31" spans="1:62" x14ac:dyDescent="0.2">
@@ -8452,19 +8392,19 @@
         <v>8</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>648</v>
+        <v>628</v>
       </c>
       <c r="G31" s="4">
         <v>0</v>
@@ -8631,19 +8571,19 @@
         <v>8</v>
       </c>
       <c r="B32" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>69</v>
-      </c>
       <c r="F32" s="19" t="s">
-        <v>649</v>
+        <v>629</v>
       </c>
       <c r="G32" s="4">
         <v>0</v>
@@ -8807,13 +8747,13 @@
     </row>
     <row r="33" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D33" s="2">
         <v>43399</v>
@@ -8822,7 +8762,7 @@
         <v>43399</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>650</v>
+        <v>630</v>
       </c>
       <c r="G33" s="4">
         <v>1</v>
@@ -8984,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="BJ33" s="24" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
     </row>
     <row r="34" spans="1:62" x14ac:dyDescent="0.2">
@@ -8992,19 +8932,19 @@
         <v>8</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>651</v>
+        <v>631</v>
       </c>
       <c r="G34" s="4">
         <v>0</v>
@@ -9171,19 +9111,19 @@
         <v>8</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>652</v>
+        <v>632</v>
       </c>
       <c r="G35" s="4">
         <v>0</v>
@@ -9350,10 +9290,10 @@
         <v>8</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D36" s="2">
         <v>44349</v>
@@ -9362,7 +9302,7 @@
         <v>44349</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>653</v>
+        <v>633</v>
       </c>
       <c r="G36" s="4">
         <v>1</v>
@@ -9524,7 +9464,7 @@
         <v>0</v>
       </c>
       <c r="BJ36" s="24" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
     </row>
     <row r="37" spans="1:62" x14ac:dyDescent="0.2">
@@ -9532,10 +9472,10 @@
         <v>8</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D37" s="2">
         <v>43795</v>
@@ -9544,7 +9484,7 @@
         <v>43795</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>654</v>
+        <v>634</v>
       </c>
       <c r="G37" s="4">
         <v>0</v>
@@ -9711,10 +9651,10 @@
         <v>8</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D38" s="2">
         <v>43865</v>
@@ -9723,7 +9663,7 @@
         <v>43867</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>655</v>
+        <v>635</v>
       </c>
       <c r="G38" s="4">
         <v>0</v>
@@ -9890,10 +9830,10 @@
         <v>8</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D39" s="2">
         <v>44053</v>
@@ -9902,7 +9842,7 @@
         <v>44053</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>656</v>
+        <v>636</v>
       </c>
       <c r="G39" s="4">
         <v>0</v>
@@ -10069,10 +10009,10 @@
         <v>8</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D40" s="2">
         <v>44082</v>
@@ -10081,7 +10021,7 @@
         <v>44079</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>657</v>
+        <v>637</v>
       </c>
       <c r="G40" s="4">
         <v>0</v>
@@ -10248,19 +10188,19 @@
         <v>8</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>658</v>
+        <v>638</v>
       </c>
       <c r="G41" s="4">
         <v>1</v>
@@ -10422,7 +10362,7 @@
         <v>0</v>
       </c>
       <c r="BJ41" s="24" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
     </row>
     <row r="42" spans="1:62" x14ac:dyDescent="0.2">
@@ -10430,10 +10370,10 @@
         <v>8</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D42" s="2">
         <v>44094</v>
@@ -10442,7 +10382,7 @@
         <v>44103</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>659</v>
+        <v>639</v>
       </c>
       <c r="G42" s="4">
         <v>0</v>
@@ -10609,19 +10549,19 @@
         <v>8</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>660</v>
+        <v>640</v>
       </c>
       <c r="G43" s="4">
         <v>0</v>
@@ -10788,19 +10728,19 @@
         <v>8</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>661</v>
+        <v>641</v>
       </c>
       <c r="G44" s="4">
         <v>0</v>
@@ -10967,19 +10907,19 @@
         <v>8</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>662</v>
+        <v>642</v>
       </c>
       <c r="G45" s="4">
         <v>0</v>
@@ -11146,19 +11086,19 @@
         <v>8</v>
       </c>
       <c r="B46" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E46" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>93</v>
-      </c>
       <c r="F46" s="19" t="s">
-        <v>663</v>
+        <v>643</v>
       </c>
       <c r="G46" s="4">
         <v>0</v>
@@ -11325,10 +11265,10 @@
         <v>8</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D47" s="2">
         <v>44440</v>
@@ -11337,7 +11277,7 @@
         <v>44419</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>664</v>
+        <v>644</v>
       </c>
       <c r="G47" s="4">
         <v>1</v>
@@ -11501,22 +11441,22 @@
     </row>
     <row r="48" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A48" s="19" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C48" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D48" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E48" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>665</v>
+        <v>645</v>
       </c>
       <c r="G48" s="4">
         <v>1</v>
@@ -11679,27 +11619,27 @@
       </c>
       <c r="BH48" s="20"/>
       <c r="BJ48" s="21" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
     </row>
     <row r="49" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
-        <v>348</v>
+      <c r="A49" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C49" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D49" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E49" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>666</v>
+        <v>646</v>
       </c>
       <c r="G49" s="4">
         <v>1</v>
@@ -11861,27 +11801,27 @@
         <v>0</v>
       </c>
       <c r="BJ49" s="21" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
     </row>
     <row r="50" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
-        <v>350</v>
+      <c r="A50" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C50" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D50" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E50" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>667</v>
+        <v>647</v>
       </c>
       <c r="G50" s="4">
         <v>1</v>
@@ -12043,27 +11983,27 @@
         <v>0</v>
       </c>
       <c r="BJ50" s="21" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
     </row>
     <row r="51" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
-        <v>348</v>
+      <c r="A51" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C51" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D51" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E51" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>668</v>
+        <v>648</v>
       </c>
       <c r="G51" s="4">
         <v>1</v>
@@ -12225,27 +12165,27 @@
         <v>0</v>
       </c>
       <c r="BJ51" s="24" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
     </row>
     <row r="52" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
-        <v>348</v>
+      <c r="A52" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C52" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D52" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E52" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>669</v>
+        <v>649</v>
       </c>
       <c r="G52" s="4">
         <v>1</v>
@@ -12407,209 +12347,209 @@
         <v>0</v>
       </c>
       <c r="BJ52" s="22" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
     </row>
     <row r="53" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="C53" t="s">
+        <v>279</v>
+      </c>
+      <c r="D53" t="s">
+        <v>140</v>
+      </c>
+      <c r="E53" t="s">
+        <v>140</v>
+      </c>
+      <c r="F53" s="19" t="s">
+        <v>650</v>
+      </c>
+      <c r="G53" s="4">
+        <v>1</v>
+      </c>
+      <c r="H53" s="4">
+        <v>0</v>
+      </c>
+      <c r="I53" s="4">
+        <v>1</v>
+      </c>
+      <c r="J53" s="4">
+        <v>0</v>
+      </c>
+      <c r="K53" s="4">
+        <v>0</v>
+      </c>
+      <c r="L53" s="4">
+        <v>0</v>
+      </c>
+      <c r="M53" s="4">
+        <v>0</v>
+      </c>
+      <c r="N53" s="4">
+        <v>0</v>
+      </c>
+      <c r="O53" s="4">
+        <v>0</v>
+      </c>
+      <c r="P53" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="4">
+        <v>0</v>
+      </c>
+      <c r="R53" s="4">
+        <v>0</v>
+      </c>
+      <c r="S53" s="4">
+        <v>0</v>
+      </c>
+      <c r="T53" s="4">
+        <v>0</v>
+      </c>
+      <c r="U53" s="4">
+        <v>0</v>
+      </c>
+      <c r="V53" s="4">
+        <v>0</v>
+      </c>
+      <c r="W53" s="4">
+        <v>0</v>
+      </c>
+      <c r="X53" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG53" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH53" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI53" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ53" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK53" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL53" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM53" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN53" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO53" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP53" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ53" s="20">
+        <v>1</v>
+      </c>
+      <c r="AR53" s="20">
+        <v>0</v>
+      </c>
+      <c r="AS53" s="20">
+        <v>0</v>
+      </c>
+      <c r="AT53" s="20">
+        <v>0</v>
+      </c>
+      <c r="AU53" s="20">
+        <v>0</v>
+      </c>
+      <c r="AV53" s="20">
+        <v>0</v>
+      </c>
+      <c r="AW53" s="20">
+        <v>0</v>
+      </c>
+      <c r="AX53" s="20">
+        <v>0</v>
+      </c>
+      <c r="AY53" s="20">
+        <v>0</v>
+      </c>
+      <c r="AZ53" s="20">
+        <v>0</v>
+      </c>
+      <c r="BA53" s="20">
+        <v>0</v>
+      </c>
+      <c r="BB53" s="20">
+        <v>0</v>
+      </c>
+      <c r="BC53" s="20">
+        <v>0</v>
+      </c>
+      <c r="BD53" s="20">
+        <v>0</v>
+      </c>
+      <c r="BE53" s="20">
+        <v>0</v>
+      </c>
+      <c r="BF53" s="20">
+        <v>0</v>
+      </c>
+      <c r="BG53" s="20">
+        <v>0</v>
+      </c>
+      <c r="BJ53" s="23" t="s">
         <v>348</v>
-      </c>
-      <c r="B53" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="C53" t="s">
-        <v>282</v>
-      </c>
-      <c r="D53" t="s">
-        <v>143</v>
-      </c>
-      <c r="E53" t="s">
-        <v>143</v>
-      </c>
-      <c r="F53" s="19" t="s">
-        <v>670</v>
-      </c>
-      <c r="G53" s="4">
-        <v>1</v>
-      </c>
-      <c r="H53" s="4">
-        <v>0</v>
-      </c>
-      <c r="I53" s="4">
-        <v>1</v>
-      </c>
-      <c r="J53" s="4">
-        <v>0</v>
-      </c>
-      <c r="K53" s="4">
-        <v>0</v>
-      </c>
-      <c r="L53" s="4">
-        <v>0</v>
-      </c>
-      <c r="M53" s="4">
-        <v>0</v>
-      </c>
-      <c r="N53" s="4">
-        <v>0</v>
-      </c>
-      <c r="O53" s="4">
-        <v>0</v>
-      </c>
-      <c r="P53" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="4">
-        <v>0</v>
-      </c>
-      <c r="R53" s="4">
-        <v>0</v>
-      </c>
-      <c r="S53" s="4">
-        <v>0</v>
-      </c>
-      <c r="T53" s="4">
-        <v>0</v>
-      </c>
-      <c r="U53" s="4">
-        <v>0</v>
-      </c>
-      <c r="V53" s="4">
-        <v>0</v>
-      </c>
-      <c r="W53" s="4">
-        <v>0</v>
-      </c>
-      <c r="X53" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y53" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z53" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA53" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB53" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC53" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD53" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE53" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF53" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG53" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH53" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI53" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ53" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK53" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL53" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM53" s="4">
-        <v>0</v>
-      </c>
-      <c r="AN53" s="4">
-        <v>0</v>
-      </c>
-      <c r="AO53" s="4">
-        <v>0</v>
-      </c>
-      <c r="AP53" s="4">
-        <v>0</v>
-      </c>
-      <c r="AQ53" s="20">
-        <v>1</v>
-      </c>
-      <c r="AR53" s="20">
-        <v>0</v>
-      </c>
-      <c r="AS53" s="20">
-        <v>0</v>
-      </c>
-      <c r="AT53" s="20">
-        <v>0</v>
-      </c>
-      <c r="AU53" s="20">
-        <v>0</v>
-      </c>
-      <c r="AV53" s="20">
-        <v>0</v>
-      </c>
-      <c r="AW53" s="20">
-        <v>0</v>
-      </c>
-      <c r="AX53" s="20">
-        <v>0</v>
-      </c>
-      <c r="AY53" s="20">
-        <v>0</v>
-      </c>
-      <c r="AZ53" s="20">
-        <v>0</v>
-      </c>
-      <c r="BA53" s="20">
-        <v>0</v>
-      </c>
-      <c r="BB53" s="20">
-        <v>0</v>
-      </c>
-      <c r="BC53" s="20">
-        <v>0</v>
-      </c>
-      <c r="BD53" s="20">
-        <v>0</v>
-      </c>
-      <c r="BE53" s="20">
-        <v>0</v>
-      </c>
-      <c r="BF53" s="20">
-        <v>0</v>
-      </c>
-      <c r="BG53" s="20">
-        <v>0</v>
-      </c>
-      <c r="BJ53" s="23" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="54" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
-        <v>348</v>
+      <c r="A54" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C54" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D54" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E54" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>671</v>
+        <v>651</v>
       </c>
       <c r="G54" s="4">
         <v>1</v>
@@ -12771,27 +12711,27 @@
         <v>0</v>
       </c>
       <c r="BJ54" s="21" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
     </row>
     <row r="55" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
-        <v>348</v>
+      <c r="A55" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D55" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E55" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F55" s="19" t="s">
-        <v>672</v>
+        <v>652</v>
       </c>
       <c r="G55" s="4">
         <v>1</v>
@@ -12953,27 +12893,27 @@
         <v>0</v>
       </c>
       <c r="BJ55" s="24" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
     </row>
     <row r="56" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
-        <v>348</v>
+      <c r="A56" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C56" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D56" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E56" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F56" s="19" t="s">
-        <v>673</v>
+        <v>653</v>
       </c>
       <c r="G56" s="4">
         <v>1</v>
@@ -13135,27 +13075,27 @@
         <v>0</v>
       </c>
       <c r="BJ56" s="22" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
     </row>
     <row r="57" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>358</v>
+      <c r="A57" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C57" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D57" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E57" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F57" s="19" t="s">
-        <v>674</v>
+        <v>654</v>
       </c>
       <c r="G57" s="4">
         <v>0</v>
@@ -13318,23 +13258,23 @@
       </c>
     </row>
     <row r="58" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>358</v>
+      <c r="A58" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C58" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D58" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E58" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F58" s="19" t="s">
-        <v>675</v>
+        <v>655</v>
       </c>
       <c r="G58" s="4">
         <v>1</v>
@@ -13496,27 +13436,27 @@
         <v>0</v>
       </c>
       <c r="BJ58" s="24" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
     </row>
     <row r="59" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
-        <v>351</v>
+      <c r="A59" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C59" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D59" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E59" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F59" s="19" t="s">
-        <v>676</v>
+        <v>656</v>
       </c>
       <c r="G59" s="4">
         <v>1</v>
@@ -13678,27 +13618,27 @@
         <v>0</v>
       </c>
       <c r="BJ59" s="24" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
     </row>
     <row r="60" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
-        <v>348</v>
+      <c r="A60" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D60" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E60" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F60" s="19" t="s">
-        <v>677</v>
+        <v>657</v>
       </c>
       <c r="G60" s="4">
         <v>1</v>
@@ -13860,27 +13800,27 @@
         <v>0</v>
       </c>
       <c r="BJ60" s="24" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
     </row>
     <row r="61" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
-        <v>348</v>
+      <c r="A61" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C61" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D61" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E61" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F61" s="19" t="s">
-        <v>678</v>
+        <v>658</v>
       </c>
       <c r="G61" s="4">
         <v>1</v>
@@ -14042,27 +13982,27 @@
         <v>0</v>
       </c>
       <c r="BJ61" s="22" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
     </row>
     <row r="62" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="s">
-        <v>348</v>
+      <c r="A62" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C62" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D62" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E62" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F62" s="19" t="s">
-        <v>679</v>
+        <v>659</v>
       </c>
       <c r="G62" s="4">
         <v>1</v>
@@ -14224,30 +14164,30 @@
         <v>0</v>
       </c>
       <c r="BI62" s="4" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="BJ62" s="22" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
     </row>
     <row r="63" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>352</v>
+      <c r="A63" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C63" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D63" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E63" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>680</v>
+        <v>660</v>
       </c>
       <c r="G63" s="4">
         <v>1</v>
@@ -14409,27 +14349,27 @@
         <v>0</v>
       </c>
       <c r="BJ63" s="24" t="s">
-        <v>382</v>
+        <v>362</v>
       </c>
     </row>
     <row r="64" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>350</v>
+      <c r="A64" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C64" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D64" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E64" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F64" s="19" t="s">
-        <v>681</v>
+        <v>661</v>
       </c>
       <c r="G64" s="4">
         <v>1</v>
@@ -14591,27 +14531,27 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="24" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
     </row>
     <row r="65" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>353</v>
+      <c r="A65" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C65" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D65" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E65" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F65" s="19" t="s">
-        <v>682</v>
+        <v>662</v>
       </c>
       <c r="G65" s="4">
         <v>1</v>
@@ -14773,27 +14713,27 @@
         <v>0</v>
       </c>
       <c r="BJ65" s="24" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
     </row>
     <row r="66" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
-        <v>348</v>
+      <c r="A66" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C66" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D66" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E66" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F66" s="19" t="s">
-        <v>683</v>
+        <v>663</v>
       </c>
       <c r="G66" s="4">
         <v>1</v>
@@ -14955,27 +14895,27 @@
         <v>0</v>
       </c>
       <c r="BJ66" s="24" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
     </row>
     <row r="67" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>354</v>
+      <c r="A67" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C67" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D67" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E67" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F67" s="19" t="s">
-        <v>684</v>
+        <v>664</v>
       </c>
       <c r="G67" s="4">
         <v>1</v>
@@ -15137,27 +15077,27 @@
         <v>0</v>
       </c>
       <c r="BJ67" s="24" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
     </row>
     <row r="68" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>355</v>
+      <c r="A68" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C68" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D68" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E68" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F68" s="19" t="s">
-        <v>685</v>
+        <v>665</v>
       </c>
       <c r="G68" s="4">
         <v>1</v>
@@ -15319,27 +15259,27 @@
         <v>0</v>
       </c>
       <c r="BJ68" s="24" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
     </row>
     <row r="69" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>353</v>
+      <c r="A69" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D69" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E69" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F69" s="19" t="s">
-        <v>686</v>
+        <v>666</v>
       </c>
       <c r="G69" s="4">
         <v>1</v>
@@ -15501,27 +15441,27 @@
         <v>0</v>
       </c>
       <c r="BJ69" s="24" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
     </row>
     <row r="70" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A70" s="4" t="s">
-        <v>348</v>
+      <c r="A70" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C70" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D70" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E70" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F70" s="19" t="s">
-        <v>687</v>
+        <v>667</v>
       </c>
       <c r="G70" s="4">
         <v>1</v>
@@ -15683,18 +15623,18 @@
         <v>0</v>
       </c>
       <c r="BJ70" s="24" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
     </row>
     <row r="71" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
-        <v>348</v>
+      <c r="A71" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C71" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D71" s="17">
         <v>44001</v>
@@ -15703,7 +15643,7 @@
         <v>44001</v>
       </c>
       <c r="F71" s="19" t="s">
-        <v>688</v>
+        <v>668</v>
       </c>
       <c r="G71" s="4">
         <v>1</v>
@@ -15865,27 +15805,27 @@
         <v>0</v>
       </c>
       <c r="BJ71" s="24" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
     </row>
     <row r="72" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
-        <v>350</v>
+      <c r="A72" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D72" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E72" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F72" s="19" t="s">
-        <v>689</v>
+        <v>669</v>
       </c>
       <c r="G72" s="4">
         <v>1</v>
@@ -16047,27 +15987,27 @@
         <v>0</v>
       </c>
       <c r="BJ72" s="24" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
     </row>
     <row r="73" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>356</v>
+      <c r="A73" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D73" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E73" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F73" s="19" t="s">
-        <v>690</v>
+        <v>670</v>
       </c>
       <c r="G73" s="4">
         <v>1</v>
@@ -16229,27 +16169,27 @@
         <v>0</v>
       </c>
       <c r="BJ73" s="24" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
     </row>
     <row r="74" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A74" s="4" t="s">
-        <v>348</v>
+      <c r="A74" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C74" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D74" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E74" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F74" s="19" t="s">
-        <v>691</v>
+        <v>671</v>
       </c>
       <c r="G74" s="4">
         <v>1</v>
@@ -16411,27 +16351,27 @@
         <v>0</v>
       </c>
       <c r="BJ74" s="24" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
     </row>
     <row r="75" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
-        <v>348</v>
+      <c r="A75" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C75" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D75" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E75" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F75" s="19" t="s">
-        <v>692</v>
+        <v>672</v>
       </c>
       <c r="G75" s="4">
         <v>1</v>
@@ -16593,27 +16533,27 @@
         <v>0</v>
       </c>
       <c r="BJ75" s="24" t="s">
-        <v>394</v>
+        <v>374</v>
       </c>
     </row>
     <row r="76" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A76" s="4" t="s">
-        <v>348</v>
+      <c r="A76" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C76" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D76" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E76" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>693</v>
+        <v>673</v>
       </c>
       <c r="G76" s="4">
         <v>1</v>
@@ -16775,27 +16715,27 @@
         <v>0</v>
       </c>
       <c r="BJ76" s="24" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
     </row>
     <row r="77" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
-        <v>348</v>
+      <c r="A77" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C77" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D77" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E77" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F77" s="19" t="s">
-        <v>694</v>
+        <v>674</v>
       </c>
       <c r="G77" s="4">
         <v>1</v>
@@ -16957,27 +16897,27 @@
         <v>0</v>
       </c>
       <c r="BJ77" s="24" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
     </row>
     <row r="78" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A78" s="4" t="s">
-        <v>348</v>
+      <c r="A78" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C78" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D78" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E78" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F78" s="19" t="s">
-        <v>695</v>
+        <v>675</v>
       </c>
       <c r="G78" s="4">
         <v>1</v>
@@ -17139,27 +17079,27 @@
         <v>0</v>
       </c>
       <c r="BJ78" s="24" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
     </row>
     <row r="79" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>357</v>
+      <c r="A79" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C79" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D79" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E79" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>696</v>
+        <v>676</v>
       </c>
       <c r="G79" s="4">
         <v>1</v>
@@ -17321,27 +17261,27 @@
         <v>0</v>
       </c>
       <c r="BJ79" s="24" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
     </row>
     <row r="80" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
-        <v>348</v>
+      <c r="A80" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C80" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="D80" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E80" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>697</v>
+        <v>677</v>
       </c>
       <c r="G80" s="4">
         <v>1</v>
@@ -17503,30 +17443,30 @@
         <v>0</v>
       </c>
       <c r="BI80" s="4" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="BJ80" s="24" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
     </row>
     <row r="81" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A81" s="4" t="s">
-        <v>348</v>
+      <c r="A81" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F81" s="19" t="s">
-        <v>698</v>
+        <v>678</v>
       </c>
       <c r="G81" s="4">
         <v>1</v>
@@ -17688,27 +17628,27 @@
         <v>0</v>
       </c>
       <c r="BJ81" s="24" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
     </row>
     <row r="82" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A82" s="4" t="s">
-        <v>348</v>
+      <c r="A82" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C82" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F82" s="19" t="s">
-        <v>699</v>
+        <v>679</v>
       </c>
       <c r="G82" s="4">
         <v>1</v>
@@ -17870,27 +17810,27 @@
         <v>0</v>
       </c>
       <c r="BJ82" s="24" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
     </row>
     <row r="83" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A83" s="4" t="s">
-        <v>348</v>
+      <c r="A83" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C83" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D83" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E83" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F83" s="19" t="s">
-        <v>700</v>
+        <v>680</v>
       </c>
       <c r="G83" s="4">
         <v>1</v>
@@ -18052,27 +17992,27 @@
         <v>0</v>
       </c>
       <c r="BJ83" s="24" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
     </row>
     <row r="84" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A84" s="4" t="s">
-        <v>348</v>
+      <c r="A84" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C84" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D84" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E84" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F84" s="19" t="s">
-        <v>701</v>
+        <v>681</v>
       </c>
       <c r="G84" s="4">
         <v>1</v>
@@ -18234,27 +18174,27 @@
         <v>0</v>
       </c>
       <c r="BJ84" s="24" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
     </row>
     <row r="85" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A85" s="4" t="s">
-        <v>348</v>
+      <c r="A85" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C85" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D85" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E85" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F85" s="19" t="s">
-        <v>702</v>
+        <v>682</v>
       </c>
       <c r="G85" s="4">
         <v>1</v>
@@ -18416,18 +18356,18 @@
         <v>0</v>
       </c>
       <c r="BJ85" s="24" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
     </row>
     <row r="86" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A86" s="4" t="s">
-        <v>348</v>
+      <c r="A86" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D86" s="17">
         <v>44041</v>
@@ -18436,7 +18376,7 @@
         <v>44041</v>
       </c>
       <c r="F86" s="19" t="s">
-        <v>703</v>
+        <v>683</v>
       </c>
       <c r="G86" s="4">
         <v>1</v>
@@ -18598,27 +18538,27 @@
         <v>0</v>
       </c>
       <c r="BJ86" s="24" t="s">
-        <v>404</v>
+        <v>384</v>
       </c>
     </row>
     <row r="87" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A87" s="4" t="s">
-        <v>348</v>
+      <c r="A87" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C87" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D87" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E87" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F87" s="19" t="s">
-        <v>704</v>
+        <v>684</v>
       </c>
       <c r="G87" s="4">
         <v>0</v>
@@ -18781,23 +18721,23 @@
       </c>
     </row>
     <row r="88" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A88" s="4" t="s">
-        <v>348</v>
+      <c r="A88" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F88" s="19" t="s">
-        <v>705</v>
+        <v>685</v>
       </c>
       <c r="G88" s="4">
         <v>1</v>
@@ -18959,27 +18899,27 @@
         <v>0</v>
       </c>
       <c r="BJ88" s="24" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
     </row>
     <row r="89" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A89" s="4" t="s">
-        <v>348</v>
+      <c r="A89" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C89" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D89" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E89" t="s">
         <v>20</v>
       </c>
       <c r="F89" s="19" t="s">
-        <v>706</v>
+        <v>686</v>
       </c>
       <c r="G89" s="4">
         <v>1</v>
@@ -19141,27 +19081,27 @@
         <v>0</v>
       </c>
       <c r="BJ89" s="24" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
     </row>
     <row r="90" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A90" s="4" t="s">
-        <v>348</v>
+      <c r="A90" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C90" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D90" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E90" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F90" s="19" t="s">
-        <v>707</v>
+        <v>687</v>
       </c>
       <c r="G90" s="4">
         <v>1</v>
@@ -19323,27 +19263,27 @@
         <v>0</v>
       </c>
       <c r="BJ90" s="24" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
     </row>
     <row r="91" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>358</v>
+      <c r="A91" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C91" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D91" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E91" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F91" s="19" t="s">
-        <v>708</v>
+        <v>688</v>
       </c>
       <c r="G91" s="4">
         <v>0</v>
@@ -19506,23 +19446,23 @@
       </c>
     </row>
     <row r="92" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>359</v>
+      <c r="A92" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B92" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D92" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E92" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F92" s="19" t="s">
-        <v>709</v>
+        <v>689</v>
       </c>
       <c r="G92" s="4">
         <v>1</v>
@@ -19684,27 +19624,27 @@
         <v>0</v>
       </c>
       <c r="BJ92" s="24" t="s">
-        <v>408</v>
+        <v>388</v>
       </c>
     </row>
     <row r="93" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A93" s="4" t="s">
-        <v>348</v>
+      <c r="A93" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D93" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E93" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F93" s="19" t="s">
-        <v>710</v>
+        <v>690</v>
       </c>
       <c r="G93" s="4">
         <v>1</v>
@@ -19866,27 +19806,27 @@
         <v>0</v>
       </c>
       <c r="BJ93" s="24" t="s">
-        <v>409</v>
+        <v>389</v>
       </c>
     </row>
     <row r="94" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A94" s="4" t="s">
-        <v>348</v>
+      <c r="A94" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C94" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D94" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E94" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F94" s="19" t="s">
-        <v>711</v>
+        <v>691</v>
       </c>
       <c r="G94" s="4">
         <v>1</v>
@@ -20048,27 +19988,27 @@
         <v>0</v>
       </c>
       <c r="BJ94" s="22" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
     </row>
     <row r="95" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>356</v>
+      <c r="A95" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B95" s="18" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D95" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E95" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F95" s="19" t="s">
-        <v>712</v>
+        <v>692</v>
       </c>
       <c r="G95" s="4">
         <v>1</v>
@@ -20230,27 +20170,27 @@
         <v>0</v>
       </c>
       <c r="BJ95" s="24" t="s">
-        <v>411</v>
+        <v>391</v>
       </c>
     </row>
     <row r="96" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>360</v>
+      <c r="A96" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C96" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D96" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E96" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F96" s="19" t="s">
-        <v>713</v>
+        <v>693</v>
       </c>
       <c r="G96" s="4">
         <v>0</v>
@@ -20413,23 +20353,23 @@
       </c>
     </row>
     <row r="97" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>361</v>
+      <c r="A97" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B97" s="18" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C97" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D97" s="18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E97" s="18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F97" s="19" t="s">
-        <v>714</v>
+        <v>694</v>
       </c>
       <c r="G97" s="4">
         <v>1</v>
@@ -20591,27 +20531,27 @@
         <v>0</v>
       </c>
       <c r="BJ97" s="24" t="s">
-        <v>412</v>
+        <v>392</v>
       </c>
     </row>
     <row r="98" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A98" s="4" t="s">
-        <v>348</v>
+      <c r="A98" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D98" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E98" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F98" s="19" t="s">
-        <v>715</v>
+        <v>695</v>
       </c>
       <c r="G98" s="4">
         <v>1</v>
@@ -20773,27 +20713,27 @@
         <v>0</v>
       </c>
       <c r="BJ98" s="24" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
     </row>
     <row r="99" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>360</v>
+      <c r="A99" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B99" s="18" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C99" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D99" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E99" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F99" s="19" t="s">
-        <v>716</v>
+        <v>696</v>
       </c>
       <c r="G99" s="4">
         <v>1</v>
@@ -20955,27 +20895,27 @@
         <v>0</v>
       </c>
       <c r="BJ99" s="21" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
     </row>
     <row r="100" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A100" s="4" t="s">
-        <v>348</v>
+      <c r="A100" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D100" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E100" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F100" s="19" t="s">
-        <v>717</v>
+        <v>697</v>
       </c>
       <c r="G100" s="4">
         <v>1</v>
@@ -21137,27 +21077,27 @@
         <v>0</v>
       </c>
       <c r="BJ100" s="21" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
     </row>
     <row r="101" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>356</v>
+      <c r="A101" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D101" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E101" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F101" s="19" t="s">
-        <v>718</v>
+        <v>698</v>
       </c>
       <c r="G101" s="4">
         <v>1</v>
@@ -21319,27 +21259,27 @@
         <v>0</v>
       </c>
       <c r="BJ101" s="24" t="s">
-        <v>416</v>
+        <v>396</v>
       </c>
     </row>
     <row r="102" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>358</v>
+      <c r="A102" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D102" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E102" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F102" s="19" t="s">
-        <v>719</v>
+        <v>699</v>
       </c>
       <c r="G102" s="4">
         <v>1</v>
@@ -21501,27 +21441,27 @@
         <v>0</v>
       </c>
       <c r="BJ102" s="24" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
     </row>
     <row r="103" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A103" s="4" t="s">
-        <v>348</v>
+      <c r="A103" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B103" s="18" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D103" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E103" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F103" s="19" t="s">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="G103" s="4">
         <v>1</v>
@@ -21683,27 +21623,27 @@
         <v>0</v>
       </c>
       <c r="BJ103" s="24" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
     </row>
     <row r="104" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A104" s="4" t="s">
-        <v>348</v>
+      <c r="A104" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C104" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D104" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E104" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F104" s="19" t="s">
-        <v>721</v>
+        <v>701</v>
       </c>
       <c r="G104" s="4">
         <v>1</v>
@@ -21865,27 +21805,27 @@
         <v>0</v>
       </c>
       <c r="BJ104" s="24" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
     </row>
     <row r="105" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>362</v>
+      <c r="A105" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B105" s="18" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D105" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E105" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F105" s="19" t="s">
-        <v>722</v>
+        <v>702</v>
       </c>
       <c r="G105" s="4">
         <v>1</v>
@@ -22047,30 +21987,30 @@
         <v>0</v>
       </c>
       <c r="BI105" s="4" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="BJ105" s="24" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
     </row>
     <row r="106" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A106" s="4" t="s">
-        <v>348</v>
+      <c r="A106" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B106" s="18" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C106" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D106" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E106" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F106" s="19" t="s">
-        <v>723</v>
+        <v>703</v>
       </c>
       <c r="G106" s="4">
         <v>1</v>
@@ -22232,27 +22172,27 @@
         <v>0</v>
       </c>
       <c r="BJ106" s="24" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
     </row>
     <row r="107" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>363</v>
+      <c r="A107" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C107" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D107" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E107" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F107" s="19" t="s">
-        <v>724</v>
+        <v>704</v>
       </c>
       <c r="G107" s="4">
         <v>1</v>
@@ -22414,30 +22354,30 @@
         <v>0</v>
       </c>
       <c r="BI107" s="4" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="BJ107" s="24" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
     </row>
     <row r="108" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>363</v>
+      <c r="A108" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B108" s="18" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D108" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E108" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F108" s="19" t="s">
-        <v>725</v>
+        <v>705</v>
       </c>
       <c r="G108" s="4">
         <v>1</v>
@@ -22599,30 +22539,30 @@
         <v>0</v>
       </c>
       <c r="BI108" s="4" t="s">
-        <v>424</v>
+        <v>404</v>
       </c>
       <c r="BJ108" s="24" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
     </row>
     <row r="109" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>353</v>
+      <c r="A109" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B109" s="18" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C109" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D109" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E109" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F109" s="19" t="s">
-        <v>726</v>
+        <v>706</v>
       </c>
       <c r="G109" s="4">
         <v>1</v>
@@ -22784,27 +22724,27 @@
         <v>0</v>
       </c>
       <c r="BJ109" s="24" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
     </row>
     <row r="110" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A110" s="4" t="s">
-        <v>348</v>
+      <c r="A110" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C110" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D110" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E110" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F110" s="19" t="s">
-        <v>727</v>
+        <v>707</v>
       </c>
       <c r="G110" s="4">
         <v>1</v>
@@ -22966,27 +22906,27 @@
         <v>0</v>
       </c>
       <c r="BJ110" s="24" t="s">
-        <v>426</v>
+        <v>406</v>
       </c>
     </row>
     <row r="111" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>354</v>
+      <c r="A111" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B111" s="18" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C111" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D111" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E111" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F111" s="19" t="s">
-        <v>728</v>
+        <v>708</v>
       </c>
       <c r="G111" s="4">
         <v>1</v>
@@ -23148,27 +23088,27 @@
         <v>0</v>
       </c>
       <c r="BJ111" s="24" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
     </row>
     <row r="112" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>354</v>
+      <c r="A112" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B112" s="18" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C112" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D112" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E112" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F112" s="19" t="s">
-        <v>729</v>
+        <v>709</v>
       </c>
       <c r="G112" s="4">
         <v>1</v>
@@ -23330,18 +23270,18 @@
         <v>0</v>
       </c>
       <c r="BJ112" s="24" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
     </row>
     <row r="113" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A113" s="4" t="s">
-        <v>348</v>
+      <c r="A113" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C113" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D113" t="s">
         <v>11</v>
@@ -23350,7 +23290,7 @@
         <v>11</v>
       </c>
       <c r="F113" s="19" t="s">
-        <v>730</v>
+        <v>710</v>
       </c>
       <c r="G113" s="4">
         <v>1</v>
@@ -23512,27 +23452,27 @@
         <v>0</v>
       </c>
       <c r="BJ113" s="24" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
     </row>
     <row r="114" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>364</v>
+      <c r="A114" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B114" s="18" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C114" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D114" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E114" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F114" s="19" t="s">
-        <v>731</v>
+        <v>711</v>
       </c>
       <c r="G114" s="4">
         <v>1</v>
@@ -23694,27 +23634,27 @@
         <v>0</v>
       </c>
       <c r="BJ114" s="24" t="s">
-        <v>430</v>
+        <v>410</v>
       </c>
     </row>
     <row r="115" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>354</v>
+      <c r="A115" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C115" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D115" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E115" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F115" s="19" t="s">
-        <v>732</v>
+        <v>712</v>
       </c>
       <c r="G115" s="4">
         <v>0</v>
@@ -23877,23 +23817,23 @@
       </c>
     </row>
     <row r="116" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A116" s="4" t="s">
-        <v>348</v>
+      <c r="A116" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C116" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D116" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E116" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F116" s="19" t="s">
-        <v>733</v>
+        <v>713</v>
       </c>
       <c r="G116" s="4">
         <v>1</v>
@@ -24055,27 +23995,27 @@
         <v>0</v>
       </c>
       <c r="BJ116" s="24" t="s">
-        <v>431</v>
+        <v>411</v>
       </c>
     </row>
     <row r="117" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A117" s="4" t="s">
-        <v>348</v>
+      <c r="A117" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C117" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D117" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E117" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F117" s="19" t="s">
-        <v>734</v>
+        <v>714</v>
       </c>
       <c r="G117" s="4">
         <v>1</v>
@@ -24237,27 +24177,27 @@
         <v>0</v>
       </c>
       <c r="BJ117" s="24" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
     </row>
     <row r="118" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A118" s="4" t="s">
-        <v>348</v>
+      <c r="A118" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B118" s="18" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D118" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E118" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F118" s="19" t="s">
-        <v>735</v>
+        <v>715</v>
       </c>
       <c r="G118" s="4">
         <v>1</v>
@@ -24419,27 +24359,27 @@
         <v>0</v>
       </c>
       <c r="BJ118" s="24" t="s">
-        <v>433</v>
+        <v>413</v>
       </c>
     </row>
     <row r="119" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>365</v>
+      <c r="A119" s="19" t="s">
+        <v>345</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D119" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E119" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F119" s="19" t="s">
-        <v>736</v>
+        <v>716</v>
       </c>
       <c r="G119" s="4">
         <v>1</v>
@@ -24601,18 +24541,18 @@
         <v>0</v>
       </c>
       <c r="BJ119" s="24" t="s">
-        <v>434</v>
+        <v>414</v>
       </c>
     </row>
     <row r="120" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B120">
         <v>79616264</v>
       </c>
       <c r="C120" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="D120" s="26">
         <v>44228</v>
@@ -24621,7 +24561,7 @@
         <v>44244</v>
       </c>
       <c r="F120" s="19" t="s">
-        <v>737</v>
+        <v>717</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -24783,18 +24723,18 @@
         <v>0</v>
       </c>
       <c r="BJ120" t="s">
-        <v>441</v>
+        <v>421</v>
       </c>
     </row>
     <row r="121" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B121">
         <v>37161635</v>
       </c>
       <c r="C121" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="D121" s="26">
         <v>44223</v>
@@ -24804,7 +24744,7 @@
         <v>44223</v>
       </c>
       <c r="F121" s="19" t="s">
-        <v>738</v>
+        <v>718</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -24966,18 +24906,18 @@
         <v>0</v>
       </c>
       <c r="BI121" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
     </row>
     <row r="122" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B122">
         <v>19472547</v>
       </c>
       <c r="C122" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="D122" s="26">
         <v>44230</v>
@@ -24987,7 +24927,7 @@
         <v>44230</v>
       </c>
       <c r="F122" s="19" t="s">
-        <v>739</v>
+        <v>719</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -25149,24 +25089,24 @@
         <v>0</v>
       </c>
       <c r="BH122" s="27" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="BI122" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="BJ122" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="123" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B123">
         <v>3307691</v>
       </c>
       <c r="C123" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="D123" s="26">
         <v>44242</v>
@@ -25176,7 +25116,7 @@
         <v>44242</v>
       </c>
       <c r="F123" s="19" t="s">
-        <v>740</v>
+        <v>720</v>
       </c>
       <c r="G123">
         <v>1</v>
@@ -25338,18 +25278,18 @@
         <v>0</v>
       </c>
       <c r="BJ123" s="28" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
     </row>
     <row r="124" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B124">
         <v>16158420</v>
       </c>
       <c r="C124" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="D124" s="26">
         <v>44253</v>
@@ -25359,7 +25299,7 @@
         <v>44253</v>
       </c>
       <c r="F124" s="19" t="s">
-        <v>741</v>
+        <v>721</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -25521,24 +25461,24 @@
         <v>0</v>
       </c>
       <c r="BH124" s="27" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="BI124" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="BJ124" s="28" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="125" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B125">
         <v>99542870</v>
       </c>
       <c r="C125" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
       <c r="D125" s="26">
         <v>44273</v>
@@ -25548,7 +25488,7 @@
         <v>44273</v>
       </c>
       <c r="F125" s="19" t="s">
-        <v>742</v>
+        <v>722</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -25710,18 +25650,18 @@
         <v>0</v>
       </c>
       <c r="BJ125" s="28" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="126" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B126">
         <v>32001356</v>
       </c>
       <c r="C126" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="D126" s="26">
         <v>44279</v>
@@ -25731,7 +25671,7 @@
         <v>44279</v>
       </c>
       <c r="F126" s="19" t="s">
-        <v>743</v>
+        <v>723</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -25893,18 +25833,18 @@
         <v>0</v>
       </c>
       <c r="BJ126" s="28" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="127" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B127">
         <v>80449853</v>
       </c>
       <c r="C127" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
       <c r="D127" s="26">
         <v>44294</v>
@@ -25914,7 +25854,7 @@
         <v>44294</v>
       </c>
       <c r="F127" s="19" t="s">
-        <v>744</v>
+        <v>724</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -26076,24 +26016,24 @@
         <v>0</v>
       </c>
       <c r="BH127" t="s">
-        <v>455</v>
+        <v>435</v>
       </c>
       <c r="BI127" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="BJ127" s="28" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="128" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B128">
         <v>14784557</v>
       </c>
       <c r="C128" t="s">
-        <v>456</v>
+        <v>436</v>
       </c>
       <c r="D128" s="26">
         <v>44299</v>
@@ -26103,7 +26043,7 @@
         <v>44299</v>
       </c>
       <c r="F128" s="19" t="s">
-        <v>745</v>
+        <v>725</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -26265,18 +26205,18 @@
         <v>0</v>
       </c>
       <c r="BJ128" s="28" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="129" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B129">
         <v>14044275</v>
       </c>
       <c r="C129" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="D129" s="26">
         <v>44312</v>
@@ -26286,7 +26226,7 @@
         <v>44312</v>
       </c>
       <c r="F129" s="19" t="s">
-        <v>746</v>
+        <v>726</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -26448,18 +26388,18 @@
         <v>0</v>
       </c>
       <c r="BJ129" s="28" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="130" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B130">
         <v>76682509</v>
       </c>
       <c r="C130" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
       <c r="D130" s="26">
         <v>44319</v>
@@ -26469,7 +26409,7 @@
         <v>44319</v>
       </c>
       <c r="F130" s="19" t="s">
-        <v>747</v>
+        <v>727</v>
       </c>
       <c r="G130">
         <v>1</v>
@@ -26631,18 +26571,18 @@
         <v>1</v>
       </c>
       <c r="BJ130" s="28" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="131" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B131">
         <v>81684672</v>
       </c>
       <c r="C131" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
       <c r="D131" s="26">
         <v>44316</v>
@@ -26652,7 +26592,7 @@
         <v>44316</v>
       </c>
       <c r="F131" s="19" t="s">
-        <v>748</v>
+        <v>728</v>
       </c>
       <c r="G131">
         <v>1</v>
@@ -26814,18 +26754,18 @@
         <v>0</v>
       </c>
       <c r="BJ131" s="28" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="132" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B132">
         <v>77690808</v>
       </c>
       <c r="C132" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="D132" s="26">
         <v>44320</v>
@@ -26835,7 +26775,7 @@
         <v>44320</v>
       </c>
       <c r="F132" s="19" t="s">
-        <v>749</v>
+        <v>729</v>
       </c>
       <c r="G132">
         <v>1</v>
@@ -26997,25 +26937,25 @@
         <v>1</v>
       </c>
       <c r="BJ132" s="28" t="s">
-        <v>461</v>
+        <v>441</v>
       </c>
     </row>
     <row r="133" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B133">
         <v>74764218</v>
       </c>
       <c r="C133" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
       <c r="D133" s="26">
         <v>44337</v>
       </c>
       <c r="E133" s="26"/>
       <c r="F133" s="19" t="s">
-        <v>750</v>
+        <v>730</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -27180,13 +27120,13 @@
     </row>
     <row r="134" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B134">
         <v>29312907</v>
       </c>
       <c r="C134" t="s">
-        <v>463</v>
+        <v>443</v>
       </c>
       <c r="D134" s="26">
         <v>44350</v>
@@ -27195,7 +27135,7 @@
         <v>44350</v>
       </c>
       <c r="F134" s="19" t="s">
-        <v>751</v>
+        <v>731</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -27357,21 +27297,21 @@
         <v>0</v>
       </c>
       <c r="BI134" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="BJ134" s="28" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
     </row>
     <row r="135" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B135">
         <v>18827980</v>
       </c>
       <c r="C135" t="s">
-        <v>466</v>
+        <v>446</v>
       </c>
       <c r="D135" s="26">
         <v>44356</v>
@@ -27381,7 +27321,7 @@
         <v>44356</v>
       </c>
       <c r="F135" s="19" t="s">
-        <v>752</v>
+        <v>732</v>
       </c>
       <c r="G135">
         <v>1</v>
@@ -27543,21 +27483,21 @@
         <v>0</v>
       </c>
       <c r="BI135" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="BJ135" s="28" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="136" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B136">
         <v>81819724</v>
       </c>
       <c r="C136" t="s">
-        <v>467</v>
+        <v>447</v>
       </c>
       <c r="D136" s="26">
         <v>44364</v>
@@ -27567,7 +27507,7 @@
         <v>44364</v>
       </c>
       <c r="F136" s="19" t="s">
-        <v>753</v>
+        <v>733</v>
       </c>
       <c r="G136">
         <v>1</v>
@@ -27729,21 +27669,21 @@
         <v>0</v>
       </c>
       <c r="BI136" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="BJ136" s="28" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="137" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B137">
         <v>6762256</v>
       </c>
       <c r="C137" t="s">
-        <v>468</v>
+        <v>448</v>
       </c>
       <c r="D137" s="26">
         <v>44365</v>
@@ -27753,7 +27693,7 @@
         <v>44365</v>
       </c>
       <c r="F137" s="19" t="s">
-        <v>754</v>
+        <v>734</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -27915,21 +27855,21 @@
         <v>1</v>
       </c>
       <c r="BI137" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="BJ137" s="28" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="138" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B138">
         <v>35465582</v>
       </c>
       <c r="C138" t="s">
-        <v>469</v>
+        <v>449</v>
       </c>
       <c r="D138" s="26">
         <v>44364</v>
@@ -27939,7 +27879,7 @@
         <v>44364</v>
       </c>
       <c r="F138" s="19" t="s">
-        <v>755</v>
+        <v>735</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -28103,13 +28043,13 @@
     </row>
     <row r="139" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B139">
         <v>82290081</v>
       </c>
       <c r="C139" t="s">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="D139" s="26">
         <v>44407</v>
@@ -28119,7 +28059,7 @@
         <v>44407</v>
       </c>
       <c r="F139" s="19" t="s">
-        <v>756</v>
+        <v>736</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -28281,18 +28221,18 @@
         <v>1</v>
       </c>
       <c r="BJ139" s="28" t="s">
-        <v>471</v>
+        <v>451</v>
       </c>
     </row>
     <row r="140" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B140">
         <v>81971384</v>
       </c>
       <c r="C140" t="s">
-        <v>472</v>
+        <v>452</v>
       </c>
       <c r="D140" s="26">
         <v>44411</v>
@@ -28302,7 +28242,7 @@
         <v>44411</v>
       </c>
       <c r="F140" s="19" t="s">
-        <v>757</v>
+        <v>737</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -28464,21 +28404,21 @@
         <v>0</v>
       </c>
       <c r="BI140" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="BJ140" s="28" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="141" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B141">
         <v>2123115</v>
       </c>
       <c r="C141" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="D141" s="26">
         <v>44417</v>
@@ -28488,7 +28428,7 @@
         <v>44417</v>
       </c>
       <c r="F141" s="19" t="s">
-        <v>758</v>
+        <v>738</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -28650,21 +28590,21 @@
         <v>0</v>
       </c>
       <c r="BI141" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="BJ141" s="28" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="142" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B142">
         <v>11865011</v>
       </c>
       <c r="C142" t="s">
-        <v>475</v>
+        <v>455</v>
       </c>
       <c r="D142" s="26">
         <v>44180</v>
@@ -28673,7 +28613,7 @@
         <v>44181</v>
       </c>
       <c r="F142" s="19" t="s">
-        <v>759</v>
+        <v>739</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -28835,18 +28775,18 @@
         <v>0</v>
       </c>
       <c r="BI142" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
     </row>
     <row r="143" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B143">
         <v>25267998</v>
       </c>
       <c r="C143" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="D143" s="26">
         <v>44188</v>
@@ -28855,7 +28795,7 @@
         <v>44188</v>
       </c>
       <c r="F143" s="19" t="s">
-        <v>760</v>
+        <v>740</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -29019,13 +28959,13 @@
     </row>
     <row r="144" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B144">
         <v>23738891</v>
       </c>
       <c r="C144" t="s">
-        <v>477</v>
+        <v>457</v>
       </c>
       <c r="D144" s="26">
         <v>44193</v>
@@ -29034,7 +28974,7 @@
         <v>43925</v>
       </c>
       <c r="F144" s="19" t="s">
-        <v>761</v>
+        <v>741</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -29198,13 +29138,13 @@
     </row>
     <row r="145" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B145">
         <v>78269941</v>
       </c>
       <c r="C145" t="s">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="D145" s="26">
         <v>44200</v>
@@ -29213,7 +29153,7 @@
         <v>44204</v>
       </c>
       <c r="F145" s="19" t="s">
-        <v>762</v>
+        <v>742</v>
       </c>
       <c r="G145">
         <v>0</v>
@@ -29377,13 +29317,13 @@
     </row>
     <row r="146" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B146">
         <v>6535330</v>
       </c>
       <c r="C146" t="s">
-        <v>479</v>
+        <v>459</v>
       </c>
       <c r="D146" s="26">
         <v>44202</v>
@@ -29392,7 +29332,7 @@
         <v>44202</v>
       </c>
       <c r="F146" s="19" t="s">
-        <v>763</v>
+        <v>743</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -29557,13 +29497,13 @@
     </row>
     <row r="147" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B147">
         <v>27481084</v>
       </c>
       <c r="C147" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="D147" s="26">
         <v>44208</v>
@@ -29572,7 +29512,7 @@
         <v>44095</v>
       </c>
       <c r="F147" s="19" t="s">
-        <v>764</v>
+        <v>744</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -29734,18 +29674,18 @@
         <v>0</v>
       </c>
       <c r="BJ147" s="28" t="s">
-        <v>481</v>
+        <v>461</v>
       </c>
     </row>
     <row r="148" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B148">
         <v>25419839</v>
       </c>
       <c r="C148" t="s">
-        <v>482</v>
+        <v>462</v>
       </c>
       <c r="D148" s="26">
         <v>44211</v>
@@ -29754,7 +29694,7 @@
         <v>44211</v>
       </c>
       <c r="F148" s="19" t="s">
-        <v>765</v>
+        <v>745</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -29918,13 +29858,13 @@
     </row>
     <row r="149" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B149">
         <v>76297738</v>
       </c>
       <c r="C149" t="s">
-        <v>483</v>
+        <v>463</v>
       </c>
       <c r="D149" s="26">
         <v>44216</v>
@@ -29933,7 +29873,7 @@
         <v>44216</v>
       </c>
       <c r="F149" s="19" t="s">
-        <v>766</v>
+        <v>746</v>
       </c>
       <c r="G149">
         <v>1</v>
@@ -30095,25 +30035,25 @@
         <v>0</v>
       </c>
       <c r="BI149" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
     </row>
     <row r="150" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B150">
         <v>79675419</v>
       </c>
       <c r="C150" t="s">
-        <v>484</v>
+        <v>464</v>
       </c>
       <c r="D150" s="26">
         <v>44222</v>
       </c>
       <c r="E150" s="26"/>
       <c r="F150" s="19" t="s">
-        <v>767</v>
+        <v>747</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -30277,13 +30217,13 @@
     </row>
     <row r="151" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B151">
         <v>79680245</v>
       </c>
       <c r="C151" t="s">
-        <v>485</v>
+        <v>465</v>
       </c>
       <c r="D151" s="26">
         <v>44225</v>
@@ -30292,7 +30232,7 @@
         <v>44286</v>
       </c>
       <c r="F151" s="19" t="s">
-        <v>768</v>
+        <v>748</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -30454,18 +30394,18 @@
         <v>0</v>
       </c>
       <c r="BI151" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
     </row>
     <row r="152" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B152">
         <v>74053836</v>
       </c>
       <c r="C152" t="s">
-        <v>486</v>
+        <v>466</v>
       </c>
       <c r="D152" s="26">
         <v>44237</v>
@@ -30474,7 +30414,7 @@
         <v>44237</v>
       </c>
       <c r="F152" s="19" t="s">
-        <v>769</v>
+        <v>749</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -30636,18 +30576,18 @@
         <v>0</v>
       </c>
       <c r="BI152" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
     </row>
     <row r="153" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B153">
         <v>74819814</v>
       </c>
       <c r="C153" t="s">
-        <v>487</v>
+        <v>467</v>
       </c>
       <c r="D153" s="26">
         <v>44237</v>
@@ -30656,7 +30596,7 @@
         <v>44237</v>
       </c>
       <c r="F153" s="19" t="s">
-        <v>770</v>
+        <v>750</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -30818,19 +30758,19 @@
         <v>0</v>
       </c>
       <c r="BI153" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="BJ153" s="28"/>
     </row>
     <row r="154" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B154">
         <v>14526701</v>
       </c>
       <c r="C154" t="s">
-        <v>488</v>
+        <v>468</v>
       </c>
       <c r="D154" s="26">
         <v>44258</v>
@@ -30839,7 +30779,7 @@
         <v>44258</v>
       </c>
       <c r="F154" s="19" t="s">
-        <v>771</v>
+        <v>751</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -31001,19 +30941,19 @@
         <v>0</v>
       </c>
       <c r="BI154" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="BJ154" s="28"/>
     </row>
     <row r="155" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B155">
         <v>37509098</v>
       </c>
       <c r="C155" t="s">
-        <v>489</v>
+        <v>469</v>
       </c>
       <c r="D155" s="26">
         <v>44256</v>
@@ -31022,7 +30962,7 @@
         <v>44256</v>
       </c>
       <c r="F155" s="19" t="s">
-        <v>772</v>
+        <v>752</v>
       </c>
       <c r="G155">
         <v>1</v>
@@ -31184,19 +31124,19 @@
         <v>0</v>
       </c>
       <c r="BI155" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="BJ155" s="28"/>
     </row>
     <row r="156" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B156">
         <v>2746931</v>
       </c>
       <c r="C156" t="s">
-        <v>490</v>
+        <v>470</v>
       </c>
       <c r="D156" s="26">
         <v>44259</v>
@@ -31205,7 +31145,7 @@
         <v>44259</v>
       </c>
       <c r="F156" s="19" t="s">
-        <v>773</v>
+        <v>753</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -31367,19 +31307,19 @@
         <v>0</v>
       </c>
       <c r="BI156" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="BJ156" s="28"/>
     </row>
     <row r="157" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B157">
         <v>38474227</v>
       </c>
       <c r="C157" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="D157" s="26">
         <v>44266</v>
@@ -31388,7 +31328,7 @@
         <v>44266</v>
       </c>
       <c r="F157" s="19" t="s">
-        <v>774</v>
+        <v>754</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -31550,19 +31490,19 @@
         <v>0</v>
       </c>
       <c r="BI157" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="BJ157" s="28"/>
     </row>
     <row r="158" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B158">
         <v>11375805</v>
       </c>
       <c r="C158" t="s">
-        <v>492</v>
+        <v>472</v>
       </c>
       <c r="D158" s="26">
         <v>44278</v>
@@ -31571,7 +31511,7 @@
         <v>44278</v>
       </c>
       <c r="F158" s="19" t="s">
-        <v>775</v>
+        <v>755</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -31733,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="BI158" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="BJ158" s="28"/>
     </row>
     <row r="159" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B159">
         <v>77372274</v>
       </c>
       <c r="C159" t="s">
-        <v>493</v>
+        <v>473</v>
       </c>
       <c r="D159" s="26">
         <v>44280</v>
@@ -31754,7 +31694,7 @@
         <v>44280</v>
       </c>
       <c r="F159" s="19" t="s">
-        <v>776</v>
+        <v>756</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -31916,19 +31856,19 @@
         <v>0</v>
       </c>
       <c r="BI159" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="BJ159" s="28"/>
     </row>
     <row r="160" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B160">
         <v>80381437</v>
       </c>
       <c r="C160" t="s">
-        <v>494</v>
+        <v>474</v>
       </c>
       <c r="D160" s="26">
         <v>44281</v>
@@ -31937,7 +31877,7 @@
         <v>44281</v>
       </c>
       <c r="F160" s="19" t="s">
-        <v>777</v>
+        <v>757</v>
       </c>
       <c r="G160">
         <v>1</v>
@@ -32102,13 +32042,13 @@
     </row>
     <row r="161" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B161">
         <v>12073961</v>
       </c>
       <c r="C161" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="D161" s="26">
         <v>44280</v>
@@ -32117,7 +32057,7 @@
         <v>44280</v>
       </c>
       <c r="F161" s="19" t="s">
-        <v>778</v>
+        <v>758</v>
       </c>
       <c r="G161">
         <v>1</v>
@@ -32282,13 +32222,13 @@
     </row>
     <row r="162" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B162">
         <v>77105906</v>
       </c>
       <c r="C162" t="s">
-        <v>496</v>
+        <v>476</v>
       </c>
       <c r="D162" s="26">
         <v>44288</v>
@@ -32297,7 +32237,7 @@
         <v>44288</v>
       </c>
       <c r="F162" s="19" t="s">
-        <v>779</v>
+        <v>759</v>
       </c>
       <c r="G162">
         <v>1</v>
@@ -32459,19 +32399,19 @@
         <v>0</v>
       </c>
       <c r="BI162" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="BJ162" s="28"/>
     </row>
     <row r="163" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B163">
         <v>78150646</v>
       </c>
       <c r="C163" t="s">
-        <v>497</v>
+        <v>477</v>
       </c>
       <c r="D163" s="26">
         <v>44287</v>
@@ -32480,7 +32420,7 @@
         <v>44287</v>
       </c>
       <c r="F163" s="19" t="s">
-        <v>780</v>
+        <v>760</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -32642,19 +32582,19 @@
         <v>0</v>
       </c>
       <c r="BI163" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="BJ163" s="28"/>
     </row>
     <row r="164" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B164">
         <v>80503311</v>
       </c>
       <c r="C164" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="D164" s="26">
         <v>44291</v>
@@ -32663,7 +32603,7 @@
         <v>44291</v>
       </c>
       <c r="F164" s="19" t="s">
-        <v>781</v>
+        <v>761</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -32828,13 +32768,13 @@
     </row>
     <row r="165" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B165">
         <v>19969831</v>
       </c>
       <c r="C165" t="s">
-        <v>499</v>
+        <v>479</v>
       </c>
       <c r="D165" s="26">
         <v>44301</v>
@@ -32843,7 +32783,7 @@
         <v>44301</v>
       </c>
       <c r="F165" s="19" t="s">
-        <v>782</v>
+        <v>762</v>
       </c>
       <c r="G165">
         <v>1</v>
@@ -33005,19 +32945,19 @@
         <v>0</v>
       </c>
       <c r="BI165" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="BJ165" s="28"/>
     </row>
     <row r="166" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B166">
         <v>80776396</v>
       </c>
       <c r="C166" t="s">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="D166" s="26">
         <v>44309</v>
@@ -33026,7 +32966,7 @@
         <v>44309</v>
       </c>
       <c r="F166" s="19" t="s">
-        <v>783</v>
+        <v>763</v>
       </c>
       <c r="G166">
         <v>1</v>
@@ -33188,19 +33128,19 @@
         <v>0</v>
       </c>
       <c r="BI166" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="BJ166" s="28"/>
     </row>
     <row r="167" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B167">
         <v>17758491</v>
       </c>
       <c r="C167" t="s">
-        <v>501</v>
+        <v>481</v>
       </c>
       <c r="D167" s="26">
         <v>44307</v>
@@ -33209,7 +33149,7 @@
         <v>44307</v>
       </c>
       <c r="F167" s="19" t="s">
-        <v>784</v>
+        <v>764</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -33371,19 +33311,19 @@
         <v>0</v>
       </c>
       <c r="BI167" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="BJ167" s="28"/>
     </row>
     <row r="168" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B168">
         <v>81738999</v>
       </c>
       <c r="C168" t="s">
-        <v>502</v>
+        <v>482</v>
       </c>
       <c r="D168" s="26">
         <v>44330</v>
@@ -33392,7 +33332,7 @@
         <v>44330</v>
       </c>
       <c r="F168" s="19" t="s">
-        <v>785</v>
+        <v>765</v>
       </c>
       <c r="G168">
         <v>1</v>
@@ -33554,18 +33494,18 @@
         <v>1</v>
       </c>
       <c r="BJ168" s="28" t="s">
-        <v>503</v>
+        <v>483</v>
       </c>
     </row>
     <row r="169" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B169">
         <v>23417892</v>
       </c>
       <c r="C169" t="s">
-        <v>504</v>
+        <v>484</v>
       </c>
       <c r="D169" s="26">
         <v>44329</v>
@@ -33574,7 +33514,7 @@
         <v>44329</v>
       </c>
       <c r="F169" s="19" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="G169">
         <v>1</v>
@@ -33736,19 +33676,19 @@
         <v>0</v>
       </c>
       <c r="BI169" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="BJ169" s="29"/>
     </row>
     <row r="170" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B170">
         <v>7416894</v>
       </c>
       <c r="C170" t="s">
-        <v>505</v>
+        <v>485</v>
       </c>
       <c r="D170" s="26">
         <v>44334</v>
@@ -33757,7 +33697,7 @@
         <v>44334</v>
       </c>
       <c r="F170" s="19" t="s">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="G170">
         <v>1</v>
@@ -33919,19 +33859,19 @@
         <v>0</v>
       </c>
       <c r="BI170" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="BJ170" s="28"/>
     </row>
     <row r="171" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B171">
         <v>35275577</v>
       </c>
       <c r="C171" t="s">
-        <v>506</v>
+        <v>486</v>
       </c>
       <c r="D171" s="26">
         <v>44334</v>
@@ -33940,7 +33880,7 @@
         <v>44334</v>
       </c>
       <c r="F171" s="19" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="G171">
         <v>1</v>
@@ -34105,13 +34045,13 @@
     </row>
     <row r="172" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B172">
         <v>27695949</v>
       </c>
       <c r="C172" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
       <c r="D172" s="26">
         <v>44342</v>
@@ -34120,7 +34060,7 @@
         <v>44342</v>
       </c>
       <c r="F172" s="19" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="G172">
         <v>1</v>
@@ -34282,19 +34222,19 @@
         <v>0</v>
       </c>
       <c r="BI172" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="BJ172" s="28"/>
     </row>
     <row r="173" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B173">
         <v>16181497</v>
       </c>
       <c r="C173" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="D173" s="26">
         <v>44344</v>
@@ -34303,7 +34243,7 @@
         <v>44344</v>
       </c>
       <c r="F173" s="19" t="s">
-        <v>790</v>
+        <v>770</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -34468,13 +34408,13 @@
     </row>
     <row r="174" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B174">
         <v>19764042</v>
       </c>
       <c r="C174" t="s">
-        <v>509</v>
+        <v>489</v>
       </c>
       <c r="D174" s="26">
         <v>44351</v>
@@ -34483,7 +34423,7 @@
         <v>44351</v>
       </c>
       <c r="F174" s="19" t="s">
-        <v>791</v>
+        <v>771</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -34648,13 +34588,13 @@
     </row>
     <row r="175" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B175">
         <v>25419839</v>
       </c>
       <c r="C175" t="s">
-        <v>510</v>
+        <v>490</v>
       </c>
       <c r="D175" s="26">
         <v>44356</v>
@@ -34663,7 +34603,7 @@
         <v>44356</v>
       </c>
       <c r="F175" s="19" t="s">
-        <v>792</v>
+        <v>772</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -34828,20 +34768,20 @@
     </row>
     <row r="176" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B176">
         <v>76302454</v>
       </c>
       <c r="C176" t="s">
-        <v>511</v>
+        <v>491</v>
       </c>
       <c r="D176" s="26">
         <v>44371</v>
       </c>
       <c r="E176" s="18"/>
       <c r="F176" s="19" t="s">
-        <v>793</v>
+        <v>773</v>
       </c>
       <c r="G176">
         <v>0</v>
@@ -35005,22 +34945,22 @@
     </row>
     <row r="177" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B177">
         <v>11239787</v>
       </c>
       <c r="C177" t="s">
-        <v>512</v>
+        <v>492</v>
       </c>
       <c r="D177" s="26">
         <v>44368</v>
       </c>
       <c r="E177" s="18" t="s">
-        <v>513</v>
+        <v>493</v>
       </c>
       <c r="F177" s="19" t="s">
-        <v>794</v>
+        <v>774</v>
       </c>
       <c r="G177">
         <v>1</v>
@@ -35182,30 +35122,30 @@
         <v>1</v>
       </c>
       <c r="BI177" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="BJ177" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="178" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B178">
         <v>31140056</v>
       </c>
       <c r="C178" t="s">
-        <v>514</v>
+        <v>494</v>
       </c>
       <c r="D178" s="26">
         <v>44383</v>
       </c>
       <c r="E178" s="18" t="s">
-        <v>515</v>
+        <v>495</v>
       </c>
       <c r="F178" s="19" t="s">
-        <v>795</v>
+        <v>775</v>
       </c>
       <c r="G178">
         <v>1</v>
@@ -35367,33 +35307,33 @@
         <v>0</v>
       </c>
       <c r="BH178" t="s">
-        <v>516</v>
+        <v>496</v>
       </c>
       <c r="BI178" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="BJ178" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="179" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B179">
         <v>76379460</v>
       </c>
       <c r="C179" t="s">
-        <v>517</v>
+        <v>497</v>
       </c>
       <c r="D179" s="26">
         <v>44391</v>
       </c>
       <c r="E179" s="18" t="s">
-        <v>518</v>
+        <v>498</v>
       </c>
       <c r="F179" s="19" t="s">
-        <v>796</v>
+        <v>776</v>
       </c>
       <c r="G179">
         <v>1</v>
@@ -35555,27 +35495,27 @@
         <v>0</v>
       </c>
       <c r="BJ179" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="180" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B180">
         <v>82224676</v>
       </c>
       <c r="C180" t="s">
-        <v>519</v>
+        <v>499</v>
       </c>
       <c r="D180" s="26">
         <v>44396</v>
       </c>
       <c r="E180" s="18" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="F180" s="19" t="s">
-        <v>797</v>
+        <v>777</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -35737,27 +35677,27 @@
         <v>0</v>
       </c>
       <c r="BJ180" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="181" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B181">
         <v>81747230</v>
       </c>
       <c r="C181" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
       <c r="D181" s="26">
         <v>44398</v>
       </c>
       <c r="E181" s="18" t="s">
-        <v>522</v>
+        <v>502</v>
       </c>
       <c r="F181" s="19" t="s">
-        <v>798</v>
+        <v>778</v>
       </c>
       <c r="G181">
         <v>1</v>
@@ -35919,27 +35859,27 @@
         <v>0</v>
       </c>
       <c r="BJ181" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="182" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B182">
         <v>12567244</v>
       </c>
       <c r="C182" t="s">
-        <v>523</v>
+        <v>503</v>
       </c>
       <c r="D182" s="26">
         <v>44403</v>
       </c>
       <c r="E182" s="18" t="s">
-        <v>524</v>
+        <v>504</v>
       </c>
       <c r="F182" s="19" t="s">
-        <v>799</v>
+        <v>779</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -36101,27 +36041,27 @@
         <v>0</v>
       </c>
       <c r="BJ182" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="183" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B183">
         <v>82009903</v>
       </c>
       <c r="C183" t="s">
-        <v>525</v>
+        <v>505</v>
       </c>
       <c r="D183" s="26">
         <v>44376</v>
       </c>
       <c r="E183" s="18" t="s">
-        <v>526</v>
+        <v>506</v>
       </c>
       <c r="F183" s="19" t="s">
-        <v>800</v>
+        <v>780</v>
       </c>
       <c r="G183">
         <v>1</v>
@@ -36283,30 +36223,30 @@
         <v>0</v>
       </c>
       <c r="BI183" t="s">
-        <v>527</v>
+        <v>507</v>
       </c>
       <c r="BJ183" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="184" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B184">
         <v>24193963</v>
       </c>
       <c r="C184" t="s">
-        <v>528</v>
+        <v>508</v>
       </c>
       <c r="D184" s="26">
         <v>44404</v>
       </c>
       <c r="E184" s="18" t="s">
-        <v>529</v>
+        <v>509</v>
       </c>
       <c r="F184" s="19" t="s">
-        <v>801</v>
+        <v>781</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -36468,27 +36408,27 @@
         <v>0</v>
       </c>
       <c r="BJ184" s="28" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
     </row>
     <row r="185" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B185">
         <v>71483879</v>
       </c>
       <c r="C185" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="D185" s="26">
         <v>44403</v>
       </c>
       <c r="E185" s="18" t="s">
-        <v>524</v>
+        <v>504</v>
       </c>
       <c r="F185" s="19" t="s">
-        <v>802</v>
+        <v>782</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -36650,27 +36590,27 @@
         <v>0</v>
       </c>
       <c r="BJ185" s="28" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="186" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B186">
         <v>78911641</v>
       </c>
       <c r="C186" t="s">
-        <v>532</v>
+        <v>512</v>
       </c>
       <c r="D186" s="26">
         <v>44406</v>
       </c>
       <c r="E186" s="18" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="F186" s="19" t="s">
-        <v>803</v>
+        <v>783</v>
       </c>
       <c r="G186">
         <v>1</v>
@@ -36832,30 +36772,30 @@
         <v>0</v>
       </c>
       <c r="BI186" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="BJ186" s="28" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="187" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B187">
         <v>14473342</v>
       </c>
       <c r="C187" t="s">
-        <v>534</v>
+        <v>514</v>
       </c>
       <c r="D187" s="26">
         <v>44414</v>
       </c>
       <c r="E187" s="18" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="F187" s="19" t="s">
-        <v>804</v>
+        <v>784</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -37017,33 +36957,33 @@
         <v>0</v>
       </c>
       <c r="BH187" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="BI187" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="BJ187" s="28" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="188" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B188">
         <v>77841179</v>
       </c>
       <c r="C188" t="s">
-        <v>537</v>
+        <v>517</v>
       </c>
       <c r="D188" s="26">
         <v>44411</v>
       </c>
       <c r="E188" s="18" t="s">
-        <v>538</v>
+        <v>518</v>
       </c>
       <c r="F188" s="19" t="s">
-        <v>805</v>
+        <v>785</v>
       </c>
       <c r="G188">
         <v>1</v>
@@ -37205,30 +37145,30 @@
         <v>0</v>
       </c>
       <c r="BI188" t="s">
-        <v>527</v>
+        <v>507</v>
       </c>
       <c r="BJ188" s="28" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="189" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B189">
         <v>82330176</v>
       </c>
       <c r="C189" t="s">
-        <v>539</v>
+        <v>519</v>
       </c>
       <c r="D189" s="26">
         <v>44414</v>
       </c>
       <c r="E189" s="18" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="F189" s="19" t="s">
-        <v>806</v>
+        <v>786</v>
       </c>
       <c r="G189">
         <v>1</v>
@@ -37390,27 +37330,27 @@
         <v>0</v>
       </c>
       <c r="BJ189" s="28" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="190" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B190">
         <v>21330188</v>
       </c>
       <c r="C190" t="s">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="D190" s="26">
         <v>44421</v>
       </c>
       <c r="E190" s="18" t="s">
-        <v>541</v>
+        <v>521</v>
       </c>
       <c r="F190" s="19" t="s">
-        <v>807</v>
+        <v>787</v>
       </c>
       <c r="G190">
         <v>1</v>
@@ -37572,27 +37512,27 @@
         <v>0</v>
       </c>
       <c r="BJ190" s="28" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="191" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B191">
         <v>21369657</v>
       </c>
       <c r="C191" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="D191" s="26">
         <v>44426</v>
       </c>
       <c r="E191" s="18" t="s">
-        <v>543</v>
+        <v>523</v>
       </c>
       <c r="F191" s="19" t="s">
-        <v>808</v>
+        <v>788</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -37754,30 +37694,30 @@
         <v>0</v>
       </c>
       <c r="BI191" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="BJ191" s="28" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="192" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B192">
         <v>12395398</v>
       </c>
       <c r="C192" t="s">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="D192" s="26">
         <v>44433</v>
       </c>
       <c r="E192" s="18" t="s">
-        <v>545</v>
+        <v>525</v>
       </c>
       <c r="F192" s="19" t="s">
-        <v>809</v>
+        <v>789</v>
       </c>
       <c r="G192">
         <v>1</v>
@@ -37939,33 +37879,33 @@
         <v>1</v>
       </c>
       <c r="BH192" s="27" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="BI192" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="BJ192" s="28" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="193" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B193">
         <v>82228255</v>
       </c>
       <c r="C193" t="s">
-        <v>546</v>
+        <v>526</v>
       </c>
       <c r="D193" s="26">
         <v>44434</v>
       </c>
       <c r="E193" s="18" t="s">
-        <v>547</v>
+        <v>527</v>
       </c>
       <c r="F193" s="19" t="s">
-        <v>810</v>
+        <v>790</v>
       </c>
       <c r="G193">
         <v>1</v>
@@ -38127,27 +38067,27 @@
         <v>0</v>
       </c>
       <c r="BJ193" s="28" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="194" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B194">
         <v>19665801</v>
       </c>
       <c r="C194" t="s">
-        <v>548</v>
+        <v>528</v>
       </c>
       <c r="D194" s="26">
         <v>44441</v>
       </c>
       <c r="E194" s="18" t="s">
-        <v>549</v>
+        <v>529</v>
       </c>
       <c r="F194" s="19" t="s">
-        <v>811</v>
+        <v>791</v>
       </c>
       <c r="G194">
         <v>1</v>
@@ -38309,27 +38249,27 @@
         <v>0</v>
       </c>
       <c r="BJ194" s="28" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="195" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B195">
         <v>9126038</v>
       </c>
       <c r="C195" t="s">
-        <v>550</v>
+        <v>530</v>
       </c>
       <c r="D195" s="26">
         <v>44442</v>
       </c>
       <c r="E195" s="18" t="s">
-        <v>551</v>
+        <v>531</v>
       </c>
       <c r="F195" s="19" t="s">
-        <v>812</v>
+        <v>792</v>
       </c>
       <c r="G195">
         <v>1</v>
@@ -38491,30 +38431,30 @@
         <v>1</v>
       </c>
       <c r="BI195" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="BJ195" s="28" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="196" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B196">
         <v>82280165</v>
       </c>
       <c r="C196" t="s">
-        <v>552</v>
+        <v>532</v>
       </c>
       <c r="D196" s="26">
         <v>44441</v>
       </c>
       <c r="E196" s="18" t="s">
-        <v>549</v>
+        <v>529</v>
       </c>
       <c r="F196" s="19" t="s">
-        <v>813</v>
+        <v>793</v>
       </c>
       <c r="G196">
         <v>1</v>
@@ -38676,30 +38616,30 @@
         <v>0</v>
       </c>
       <c r="BI196" t="s">
-        <v>553</v>
+        <v>533</v>
       </c>
       <c r="BJ196" s="28" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="197" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B197">
         <v>76867241</v>
       </c>
       <c r="C197" t="s">
-        <v>554</v>
+        <v>534</v>
       </c>
       <c r="D197" s="26">
         <v>44463</v>
       </c>
       <c r="E197" s="18" t="s">
-        <v>555</v>
+        <v>535</v>
       </c>
       <c r="F197" s="19" t="s">
-        <v>814</v>
+        <v>794</v>
       </c>
       <c r="G197">
         <v>1</v>
@@ -38861,30 +38801,30 @@
         <v>0</v>
       </c>
       <c r="BI197" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="BJ197" s="28" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="198" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B198">
         <v>31140056</v>
       </c>
       <c r="C198" t="s">
-        <v>556</v>
+        <v>536</v>
       </c>
       <c r="D198" s="26">
         <v>44467</v>
       </c>
       <c r="E198" s="18" t="s">
-        <v>515</v>
+        <v>495</v>
       </c>
       <c r="F198" s="19" t="s">
-        <v>815</v>
+        <v>795</v>
       </c>
       <c r="G198">
         <v>1</v>
@@ -39046,33 +38986,33 @@
         <v>0</v>
       </c>
       <c r="BH198" t="s">
-        <v>516</v>
+        <v>496</v>
       </c>
       <c r="BI198" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="BJ198" s="28" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="199" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B199">
         <v>25267998</v>
       </c>
       <c r="C199" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
       <c r="D199" s="26">
         <v>44476</v>
       </c>
       <c r="E199" s="18" t="s">
-        <v>558</v>
+        <v>538</v>
       </c>
       <c r="F199" s="19" t="s">
-        <v>816</v>
+        <v>796</v>
       </c>
       <c r="G199">
         <v>1</v>
@@ -39234,33 +39174,33 @@
         <v>0</v>
       </c>
       <c r="BH199" s="27" t="s">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="BI199" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="BJ199" s="28" t="s">
-        <v>559</v>
+        <v>539</v>
       </c>
     </row>
     <row r="200" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B200">
         <v>9788050</v>
       </c>
       <c r="C200" t="s">
-        <v>561</v>
+        <v>541</v>
       </c>
       <c r="D200" s="26">
         <v>44481</v>
       </c>
       <c r="E200" s="18" t="s">
-        <v>562</v>
+        <v>542</v>
       </c>
       <c r="F200" s="19" t="s">
-        <v>817</v>
+        <v>797</v>
       </c>
       <c r="G200">
         <v>1</v>
@@ -39422,30 +39362,30 @@
         <v>0</v>
       </c>
       <c r="BI200" t="s">
-        <v>527</v>
+        <v>507</v>
       </c>
       <c r="BJ200" s="28" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="201" spans="1:62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
       <c r="B201">
         <v>20394516</v>
       </c>
       <c r="C201" t="s">
-        <v>563</v>
+        <v>543</v>
       </c>
       <c r="D201" s="26">
         <v>44482</v>
       </c>
       <c r="E201" s="18" t="s">
-        <v>564</v>
+        <v>544</v>
       </c>
       <c r="F201" s="19" t="s">
-        <v>818</v>
+        <v>798</v>
       </c>
       <c r="G201">
         <v>1</v>
@@ -39607,10 +39547,10 @@
         <v>0</v>
       </c>
       <c r="BI201" t="s">
-        <v>565</v>
+        <v>545</v>
       </c>
       <c r="BJ201" s="28" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
